--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ncam1-Robo1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ncam1-Robo1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>MuSCs</t>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -537,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.541588333333333</v>
+        <v>2.721912</v>
       </c>
       <c r="H2">
-        <v>7.624765</v>
+        <v>8.165736000000001</v>
       </c>
       <c r="I2">
-        <v>0.04173735321957359</v>
+        <v>0.03958906885744382</v>
       </c>
       <c r="J2">
-        <v>0.04173735321957359</v>
+        <v>0.03958906885744382</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.6629413333333334</v>
+        <v>0.7788713333333334</v>
       </c>
       <c r="N2">
-        <v>1.988824</v>
+        <v>2.336614</v>
       </c>
       <c r="O2">
-        <v>0.01938545156182102</v>
+        <v>0.02154486428780801</v>
       </c>
       <c r="P2">
-        <v>0.01938545156182102</v>
+        <v>0.02154486428780801</v>
       </c>
       <c r="Q2">
-        <v>1.684923958484445</v>
+        <v>2.120019228656</v>
       </c>
       <c r="R2">
-        <v>15.16431562636</v>
+        <v>19.080173057904</v>
       </c>
       <c r="S2">
-        <v>0.0008090974391566585</v>
+        <v>0.0008529411158143135</v>
       </c>
       <c r="T2">
-        <v>0.0008090974391566585</v>
+        <v>0.0008529411158143135</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -599,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.541588333333333</v>
+        <v>2.721912</v>
       </c>
       <c r="H3">
-        <v>7.624765</v>
+        <v>8.165736000000001</v>
       </c>
       <c r="I3">
-        <v>0.04173735321957359</v>
+        <v>0.03958906885744382</v>
       </c>
       <c r="J3">
-        <v>0.04173735321957359</v>
+        <v>0.03958906885744382</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +626,22 @@
         <v>89.435529</v>
       </c>
       <c r="O3">
-        <v>0.8717453707996982</v>
+        <v>0.8246446930529893</v>
       </c>
       <c r="P3">
-        <v>0.8717453707996982</v>
+        <v>0.8246446930529893</v>
       </c>
       <c r="Q3">
-        <v>75.769432363965</v>
+        <v>81.145213203816</v>
       </c>
       <c r="R3">
-        <v>681.924891275685</v>
+        <v>730.3069188343441</v>
       </c>
       <c r="S3">
-        <v>0.03638434445859516</v>
+        <v>0.03264691553620041</v>
       </c>
       <c r="T3">
-        <v>0.03638434445859516</v>
+        <v>0.03264691553620042</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -661,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.541588333333333</v>
+        <v>2.721912</v>
       </c>
       <c r="H4">
-        <v>7.624765</v>
+        <v>8.165736000000001</v>
       </c>
       <c r="I4">
-        <v>0.04173735321957359</v>
+        <v>0.03958906885744382</v>
       </c>
       <c r="J4">
-        <v>0.04173735321957359</v>
+        <v>0.03958906885744382</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,43 +682,43 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.723095</v>
+        <v>5.508900000000001</v>
       </c>
       <c r="N4">
-        <v>11.169285</v>
+        <v>16.5267</v>
       </c>
       <c r="O4">
-        <v>0.1088691776384809</v>
+        <v>0.152385250035015</v>
       </c>
       <c r="P4">
-        <v>0.1088691776384809</v>
+        <v>0.152385250035015</v>
       </c>
       <c r="Q4">
-        <v>9.462574815891667</v>
+        <v>14.9947410168</v>
       </c>
       <c r="R4">
-        <v>85.16317334302501</v>
+        <v>134.9526691512</v>
       </c>
       <c r="S4">
-        <v>0.004543911321821779</v>
+        <v>0.006032790156495003</v>
       </c>
       <c r="T4">
-        <v>0.004543911321821779</v>
+        <v>0.006032790156495004</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
         <v>3</v>
       </c>
@@ -723,46 +726,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>22.91769833333333</v>
+        <v>2.721912</v>
       </c>
       <c r="H5">
-        <v>68.753095</v>
+        <v>8.165736000000001</v>
       </c>
       <c r="I5">
-        <v>0.3763489380923739</v>
+        <v>0.03958906885744382</v>
       </c>
       <c r="J5">
-        <v>0.3763489380923739</v>
+        <v>0.03958906885744382</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.6629413333333334</v>
+        <v>0.05152233333333334</v>
       </c>
       <c r="N5">
-        <v>1.988824</v>
+        <v>0.154567</v>
       </c>
       <c r="O5">
-        <v>0.01938545156182102</v>
+        <v>0.001425192624187658</v>
       </c>
       <c r="P5">
-        <v>0.01938545156182102</v>
+        <v>0.001425192624187658</v>
       </c>
       <c r="Q5">
-        <v>15.19308949003111</v>
+        <v>0.140239257368</v>
       </c>
       <c r="R5">
-        <v>136.73780541028</v>
+        <v>1.262153316312</v>
       </c>
       <c r="S5">
-        <v>0.007295694109732491</v>
+        <v>5.642204893408624E-05</v>
       </c>
       <c r="T5">
-        <v>0.007295694109732491</v>
+        <v>5.642204893408626E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,13 +773,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,10 +794,10 @@
         <v>68.753095</v>
       </c>
       <c r="I6">
-        <v>0.3763489380923739</v>
+        <v>0.3333283138369127</v>
       </c>
       <c r="J6">
-        <v>0.3763489380923739</v>
+        <v>0.3333283138369127</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>29.811843</v>
+        <v>0.7788713333333334</v>
       </c>
       <c r="N6">
-        <v>89.435529</v>
+        <v>2.336614</v>
       </c>
       <c r="O6">
-        <v>0.8717453707996982</v>
+        <v>0.02154486428780801</v>
       </c>
       <c r="P6">
-        <v>0.8717453707996982</v>
+        <v>0.02154486428780801</v>
       </c>
       <c r="Q6">
-        <v>683.218824634695</v>
+        <v>17.84993825781445</v>
       </c>
       <c r="R6">
-        <v>6148.969421712255</v>
+        <v>160.64944432033</v>
       </c>
       <c r="S6">
-        <v>0.3280804445874091</v>
+        <v>0.007181513284900161</v>
       </c>
       <c r="T6">
-        <v>0.3280804445874091</v>
+        <v>0.007181513284900159</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,13 +835,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,10 +856,10 @@
         <v>68.753095</v>
       </c>
       <c r="I7">
-        <v>0.3763489380923739</v>
+        <v>0.3333283138369127</v>
       </c>
       <c r="J7">
-        <v>0.3763489380923739</v>
+        <v>0.3333283138369127</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,42 +868,42 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.723095</v>
+        <v>29.811843</v>
       </c>
       <c r="N7">
-        <v>11.169285</v>
+        <v>89.435529</v>
       </c>
       <c r="O7">
-        <v>0.1088691776384809</v>
+        <v>0.8246446930529893</v>
       </c>
       <c r="P7">
-        <v>0.1088691776384809</v>
+        <v>0.8246446930529893</v>
       </c>
       <c r="Q7">
-        <v>85.32476807634167</v>
+        <v>683.218824634695</v>
       </c>
       <c r="R7">
-        <v>767.922912687075</v>
+        <v>6148.969421712255</v>
       </c>
       <c r="S7">
-        <v>0.0409727993952323</v>
+        <v>0.2748774250499114</v>
       </c>
       <c r="T7">
-        <v>0.0409727993952323</v>
+        <v>0.2748774250499114</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -909,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>35.39544900000001</v>
+        <v>22.91769833333333</v>
       </c>
       <c r="H8">
-        <v>106.186347</v>
+        <v>68.753095</v>
       </c>
       <c r="I8">
-        <v>0.5812555628711455</v>
+        <v>0.3333283138369127</v>
       </c>
       <c r="J8">
-        <v>0.5812555628711454</v>
+        <v>0.3333283138369127</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,43 +930,43 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.6629413333333334</v>
+        <v>5.508900000000001</v>
       </c>
       <c r="N8">
-        <v>1.988824</v>
+        <v>16.5267</v>
       </c>
       <c r="O8">
-        <v>0.01938545156182102</v>
+        <v>0.152385250035015</v>
       </c>
       <c r="P8">
-        <v>0.01938545156182102</v>
+        <v>0.152385250035015</v>
       </c>
       <c r="Q8">
-        <v>23.46510615399201</v>
+        <v>126.2513083485</v>
       </c>
       <c r="R8">
-        <v>211.185955385928</v>
+        <v>1136.2617751365</v>
       </c>
       <c r="S8">
-        <v>0.0112679015590776</v>
+        <v>0.05079431844778791</v>
       </c>
       <c r="T8">
-        <v>0.0112679015590776</v>
+        <v>0.05079431844778791</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
       <c r="E9">
         <v>3</v>
       </c>
@@ -971,46 +974,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>35.39544900000001</v>
+        <v>22.91769833333333</v>
       </c>
       <c r="H9">
-        <v>106.186347</v>
+        <v>68.753095</v>
       </c>
       <c r="I9">
-        <v>0.5812555628711455</v>
+        <v>0.3333283138369127</v>
       </c>
       <c r="J9">
-        <v>0.5812555628711454</v>
+        <v>0.3333283138369127</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>29.811843</v>
+        <v>0.05152233333333334</v>
       </c>
       <c r="N9">
-        <v>89.435529</v>
+        <v>0.154567</v>
       </c>
       <c r="O9">
-        <v>0.8717453707996982</v>
+        <v>0.001425192624187658</v>
       </c>
       <c r="P9">
-        <v>0.8717453707996982</v>
+        <v>0.001425192624187658</v>
       </c>
       <c r="Q9">
-        <v>1055.203568502507</v>
+        <v>1.180773292762778</v>
       </c>
       <c r="R9">
-        <v>9496.832116522564</v>
+        <v>10.626959634865</v>
       </c>
       <c r="S9">
-        <v>0.506706846184494</v>
+        <v>0.0004750570543132769</v>
       </c>
       <c r="T9">
-        <v>0.5067068461844939</v>
+        <v>0.0004750570543132769</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,31 +1021,31 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>35.39544900000001</v>
+        <v>0.02880066666666667</v>
       </c>
       <c r="H10">
-        <v>106.186347</v>
+        <v>0.08640200000000001</v>
       </c>
       <c r="I10">
-        <v>0.5812555628711455</v>
+        <v>0.0004188936217654919</v>
       </c>
       <c r="J10">
-        <v>0.5812555628711454</v>
+        <v>0.0004188936217654919</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,42 +1054,42 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.723095</v>
+        <v>0.7788713333333334</v>
       </c>
       <c r="N10">
-        <v>11.169285</v>
+        <v>2.336614</v>
       </c>
       <c r="O10">
-        <v>0.1088691776384809</v>
+        <v>0.02154486428780801</v>
       </c>
       <c r="P10">
-        <v>0.1088691776384809</v>
+        <v>0.02154486428780801</v>
       </c>
       <c r="Q10">
-        <v>131.780619194655</v>
+        <v>0.02243201364755556</v>
       </c>
       <c r="R10">
-        <v>1186.025572751895</v>
+        <v>0.201888122828</v>
       </c>
       <c r="S10">
-        <v>0.06328081512757393</v>
+        <v>9.025006231965902E-06</v>
       </c>
       <c r="T10">
-        <v>0.06328081512757391</v>
+        <v>9.025006231965901E-06</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1095,16 +1098,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.04007766666666666</v>
+        <v>0.02880066666666667</v>
       </c>
       <c r="H11">
-        <v>0.120233</v>
+        <v>0.08640200000000001</v>
       </c>
       <c r="I11">
-        <v>0.0006581458169070118</v>
+        <v>0.0004188936217654919</v>
       </c>
       <c r="J11">
-        <v>0.0006581458169070117</v>
+        <v>0.0004188936217654919</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,42 +1116,42 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.6629413333333334</v>
+        <v>29.811843</v>
       </c>
       <c r="N11">
-        <v>1.988824</v>
+        <v>89.435529</v>
       </c>
       <c r="O11">
-        <v>0.01938545156182102</v>
+        <v>0.8246446930529893</v>
       </c>
       <c r="P11">
-        <v>0.01938545156182102</v>
+        <v>0.8246446930529893</v>
       </c>
       <c r="Q11">
-        <v>0.02656914177688889</v>
+        <v>0.858600952962</v>
       </c>
       <c r="R11">
-        <v>0.239122275992</v>
+        <v>7.727408576658001</v>
       </c>
       <c r="S11">
-        <v>1.2758453854266E-05</v>
+        <v>0.0003454384021426591</v>
       </c>
       <c r="T11">
-        <v>1.2758453854266E-05</v>
+        <v>0.0003454384021426591</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
-      </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1157,16 +1160,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.04007766666666666</v>
+        <v>0.02880066666666667</v>
       </c>
       <c r="H12">
-        <v>0.120233</v>
+        <v>0.08640200000000001</v>
       </c>
       <c r="I12">
-        <v>0.0006581458169070118</v>
+        <v>0.0004188936217654919</v>
       </c>
       <c r="J12">
-        <v>0.0006581458169070117</v>
+        <v>0.0004188936217654919</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,42 +1178,42 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>29.811843</v>
+        <v>5.508900000000001</v>
       </c>
       <c r="N12">
-        <v>89.435529</v>
+        <v>16.5267</v>
       </c>
       <c r="O12">
-        <v>0.8717453707996982</v>
+        <v>0.152385250035015</v>
       </c>
       <c r="P12">
-        <v>0.8717453707996982</v>
+        <v>0.152385250035015</v>
       </c>
       <c r="Q12">
-        <v>1.194789106473</v>
+        <v>0.1586599926</v>
       </c>
       <c r="R12">
-        <v>10.753101958257</v>
+        <v>1.4279399334</v>
       </c>
       <c r="S12">
-        <v>0.0005737355691998732</v>
+        <v>6.38332092908075E-05</v>
       </c>
       <c r="T12">
-        <v>0.0005737355691998731</v>
+        <v>6.38332092908075E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>22</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1219,46 +1222,542 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.04007766666666666</v>
+        <v>0.02880066666666667</v>
       </c>
       <c r="H13">
-        <v>0.120233</v>
+        <v>0.08640200000000001</v>
       </c>
       <c r="I13">
-        <v>0.0006581458169070118</v>
+        <v>0.0004188936217654919</v>
       </c>
       <c r="J13">
-        <v>0.0006581458169070117</v>
+        <v>0.0004188936217654919</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>3.723095</v>
+        <v>0.05152233333333334</v>
       </c>
       <c r="N13">
-        <v>11.169285</v>
+        <v>0.154567</v>
       </c>
       <c r="O13">
-        <v>0.1088691776384809</v>
+        <v>0.001425192624187658</v>
       </c>
       <c r="P13">
-        <v>0.1088691776384809</v>
+        <v>0.001425192624187658</v>
       </c>
       <c r="Q13">
-        <v>0.1492129603783333</v>
+        <v>0.001483877548222222</v>
       </c>
       <c r="R13">
-        <v>1.342916643405</v>
+        <v>0.013354897934</v>
       </c>
       <c r="S13">
-        <v>7.165179385287257E-05</v>
+        <v>5.970041000594338E-07</v>
       </c>
       <c r="T13">
-        <v>7.165179385287257E-05</v>
+        <v>5.970041000594338E-07</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>43.03445633333334</v>
+      </c>
+      <c r="H14">
+        <v>129.103369</v>
+      </c>
+      <c r="I14">
+        <v>0.6259181248412854</v>
+      </c>
+      <c r="J14">
+        <v>0.6259181248412854</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.7788713333333334</v>
+      </c>
+      <c r="N14">
+        <v>2.336614</v>
+      </c>
+      <c r="O14">
+        <v>0.02154486428780801</v>
+      </c>
+      <c r="P14">
+        <v>0.02154486428780801</v>
+      </c>
+      <c r="Q14">
+        <v>33.51830438361845</v>
+      </c>
+      <c r="R14">
+        <v>301.664739452566</v>
+      </c>
+      <c r="S14">
+        <v>0.01348532105498476</v>
+      </c>
+      <c r="T14">
+        <v>0.01348532105498476</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>43.03445633333334</v>
+      </c>
+      <c r="H15">
+        <v>129.103369</v>
+      </c>
+      <c r="I15">
+        <v>0.6259181248412854</v>
+      </c>
+      <c r="J15">
+        <v>0.6259181248412854</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>29.811843</v>
+      </c>
+      <c r="N15">
+        <v>89.435529</v>
+      </c>
+      <c r="O15">
+        <v>0.8246446930529893</v>
+      </c>
+      <c r="P15">
+        <v>0.8246446930529893</v>
+      </c>
+      <c r="Q15">
+        <v>1282.936455799689</v>
+      </c>
+      <c r="R15">
+        <v>11546.4281021972</v>
+      </c>
+      <c r="S15">
+        <v>0.5161600599360444</v>
+      </c>
+      <c r="T15">
+        <v>0.5161600599360444</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>43.03445633333334</v>
+      </c>
+      <c r="H16">
+        <v>129.103369</v>
+      </c>
+      <c r="I16">
+        <v>0.6259181248412854</v>
+      </c>
+      <c r="J16">
+        <v>0.6259181248412854</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>5.508900000000001</v>
+      </c>
+      <c r="N16">
+        <v>16.5267</v>
+      </c>
+      <c r="O16">
+        <v>0.152385250035015</v>
+      </c>
+      <c r="P16">
+        <v>0.152385250035015</v>
+      </c>
+      <c r="Q16">
+        <v>237.0725164947</v>
+      </c>
+      <c r="R16">
+        <v>2133.652648452301</v>
+      </c>
+      <c r="S16">
+        <v>0.09538068995538704</v>
+      </c>
+      <c r="T16">
+        <v>0.09538068995538704</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>43.03445633333334</v>
+      </c>
+      <c r="H17">
+        <v>129.103369</v>
+      </c>
+      <c r="I17">
+        <v>0.6259181248412854</v>
+      </c>
+      <c r="J17">
+        <v>0.6259181248412854</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.05152233333333334</v>
+      </c>
+      <c r="N17">
+        <v>0.154567</v>
+      </c>
+      <c r="O17">
+        <v>0.001425192624187658</v>
+      </c>
+      <c r="P17">
+        <v>0.001425192624187658</v>
+      </c>
+      <c r="Q17">
+        <v>2.217235604024778</v>
+      </c>
+      <c r="R17">
+        <v>19.95512043622301</v>
+      </c>
+      <c r="S17">
+        <v>0.0008920538948691698</v>
+      </c>
+      <c r="T17">
+        <v>0.0008920538948691698</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.051263</v>
+      </c>
+      <c r="H18">
+        <v>0.153789</v>
+      </c>
+      <c r="I18">
+        <v>0.0007455988425926857</v>
+      </c>
+      <c r="J18">
+        <v>0.0007455988425926857</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.7788713333333334</v>
+      </c>
+      <c r="N18">
+        <v>2.336614</v>
+      </c>
+      <c r="O18">
+        <v>0.02154486428780801</v>
+      </c>
+      <c r="P18">
+        <v>0.02154486428780801</v>
+      </c>
+      <c r="Q18">
+        <v>0.03992728116066667</v>
+      </c>
+      <c r="R18">
+        <v>0.359345530446</v>
+      </c>
+      <c r="S18">
+        <v>1.606382587680614E-05</v>
+      </c>
+      <c r="T18">
+        <v>1.606382587680614E-05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.051263</v>
+      </c>
+      <c r="H19">
+        <v>0.153789</v>
+      </c>
+      <c r="I19">
+        <v>0.0007455988425926857</v>
+      </c>
+      <c r="J19">
+        <v>0.0007455988425926857</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>29.811843</v>
+      </c>
+      <c r="N19">
+        <v>89.435529</v>
+      </c>
+      <c r="O19">
+        <v>0.8246446930529893</v>
+      </c>
+      <c r="P19">
+        <v>0.8246446930529893</v>
+      </c>
+      <c r="Q19">
+        <v>1.528244507709</v>
+      </c>
+      <c r="R19">
+        <v>13.754200569381</v>
+      </c>
+      <c r="S19">
+        <v>0.0006148541286905094</v>
+      </c>
+      <c r="T19">
+        <v>0.0006148541286905094</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.051263</v>
+      </c>
+      <c r="H20">
+        <v>0.153789</v>
+      </c>
+      <c r="I20">
+        <v>0.0007455988425926857</v>
+      </c>
+      <c r="J20">
+        <v>0.0007455988425926857</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>5.508900000000001</v>
+      </c>
+      <c r="N20">
+        <v>16.5267</v>
+      </c>
+      <c r="O20">
+        <v>0.152385250035015</v>
+      </c>
+      <c r="P20">
+        <v>0.152385250035015</v>
+      </c>
+      <c r="Q20">
+        <v>0.2824027407</v>
+      </c>
+      <c r="R20">
+        <v>2.541624666300001</v>
+      </c>
+      <c r="S20">
+        <v>0.0001136182660543042</v>
+      </c>
+      <c r="T20">
+        <v>0.0001136182660543042</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.051263</v>
+      </c>
+      <c r="H21">
+        <v>0.153789</v>
+      </c>
+      <c r="I21">
+        <v>0.0007455988425926857</v>
+      </c>
+      <c r="J21">
+        <v>0.0007455988425926857</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M21">
+        <v>0.05152233333333334</v>
+      </c>
+      <c r="N21">
+        <v>0.154567</v>
+      </c>
+      <c r="O21">
+        <v>0.001425192624187658</v>
+      </c>
+      <c r="P21">
+        <v>0.001425192624187658</v>
+      </c>
+      <c r="Q21">
+        <v>0.002641189373666667</v>
+      </c>
+      <c r="R21">
+        <v>0.023770704363</v>
+      </c>
+      <c r="S21">
+        <v>1.06262197106595E-06</v>
+      </c>
+      <c r="T21">
+        <v>1.06262197106595E-06</v>
       </c>
     </row>
   </sheetData>
